--- a/kanban_report.xlsx
+++ b/kanban_report.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
@@ -492,26 +492,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cierre de fibras</t>
+          <t>Desarrollo de sistemas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Desarrollar el cierre de fibras</t>
+          <t>Desarrollo de sistemas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Por Hacer</t>
+          <t>En Progreso</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>04/10/2025 01:00</t>
+          <t>10/10/2025 17:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -521,24 +521,28 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/09/2025 17:32</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>02/10/2025 17:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>02/10/2025 17:00</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cierre de Telas</t>
+          <t>Desarrollo de BD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cierre de Telas</t>
+          <t>Desarrollo de BD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +552,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>06/10/2025 22:00</t>
+          <t>30/10/2025 17:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -558,7 +562,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30/09/2025 17:33</t>
+          <t>02/10/2025 17:01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -566,26 +570,26 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kardex de Quimico</t>
+          <t>Mandar email a TI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kardex de Quimico</t>
+          <t>Mandar email a TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>En Progreso</t>
+          <t>Realizadas</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>03/10/2025 22:33</t>
+          <t>22/10/2025 17:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -595,431 +599,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/09/2025 17:34</t>
+          <t>02/10/2025 17:01</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>01/10/2025 10:46</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Desarrollo del sistema InfoMensajero</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Desarrollo del sistema InfoMensajero</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30/09/2025 23:00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>30/09/2025 17:48</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>30/09/2025 18:42</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>01/10/2025 10:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Terminar programa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30/09/2025 18:45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>30/09/2025 18:45</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>30/09/2025 18:47</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>30/09/2025 18:48</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Consumo de Quimicos</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Consumo de Quimicos</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Por Hacer</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>04/10/2025 11:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>01/10/2025 11:03</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Datos de optimizacion</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Datos de optimizacion</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>02/10/2025 14:36</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:36</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:36</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Prueba 201</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:40</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:40</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:40</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Prueba 2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>02/10/2025 14:54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:55</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:55</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>01/10/2025 14:55</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Prueba 3</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>02/10/2025 15:05</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:05</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:05</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Prueba 4</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>03/10/2025 15:08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:08</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:08</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Prueba 6</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>04/10/2025 15:10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:10</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:10</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Prueba 7</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Realizadas</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>04/10/2025 15:32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Steve Chunga</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:32</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:32</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>01/10/2025 15:32</t>
+          <t>02/10/2025 17:01</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>02/10/2025 17:01</t>
         </is>
       </c>
     </row>
